--- a/Testing Documents/User Acceptance Testing AI.xlsx
+++ b/Testing Documents/User Acceptance Testing AI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Documents\Term-3-AI\Testing Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E60B78B-E0F2-4317-8C2C-1FEF3B65DBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1975317-22F5-40AF-8107-C0B8392826B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8478DEDF-7F04-4077-B68D-9AFD543336D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
   <si>
     <t>User Acceptance Testing</t>
   </si>
@@ -293,6 +293,24 @@
   </si>
   <si>
     <t>Application displays a predicted value within the range</t>
+  </si>
+  <si>
+    <t>Application does not run</t>
+  </si>
+  <si>
+    <t>1.Open application
+2.enter input values
+3.start the prediction process</t>
+  </si>
+  <si>
+    <t>Input values in expected range
+[0,42,52812.09301,15609.38091,138961.2505]</t>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>Prediction shown on screen</t>
   </si>
 </sst>
 </file>
@@ -471,18 +489,11 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -493,9 +504,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -514,6 +522,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -833,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2178B82F-BB68-4BFB-9B21-BA48D972587D}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -849,7 +863,8 @@
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
-    <col min="9" max="11" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="10" max="11" width="18.28515625" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
@@ -860,566 +875,557 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="30">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="101.45" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
+      <c r="I4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="5">
         <v>45173</v>
       </c>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:17" ht="69.75" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="5">
         <v>45173</v>
       </c>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="89.25" customHeight="1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="7" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="5">
         <v>45173</v>
       </c>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="51">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="7" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="5">
         <v>45173</v>
       </c>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="70.5" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="7" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="5">
         <v>45173</v>
       </c>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="81.75" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="7" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="5">
         <v>45173</v>
       </c>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="84" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="7" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="5">
         <v>45173</v>
       </c>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" ht="88.5" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="7" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="5">
         <v>45173</v>
       </c>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" ht="54.75" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="7" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="5">
         <v>45173</v>
       </c>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" ht="56.25" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="7" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="5">
         <v>45173</v>
       </c>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" ht="110.25" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="7" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="5">
         <v>45173</v>
       </c>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" ht="63.75">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="7" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="5">
         <v>45173</v>
       </c>
-      <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="Q15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1432,15 +1438,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="df9135bc-a39e-4069-9ffb-360f93402c62" xsi:nil="true"/>
@@ -1449,6 +1446,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1667,20 +1673,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3C54FB-5819-49BB-95E2-CB49BE3A27CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="df9135bc-a39e-4069-9ffb-360f93402c62"/>
     <ds:schemaRef ds:uri="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Testing Documents/User Acceptance Testing AI.xlsx
+++ b/Testing Documents/User Acceptance Testing AI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Documents\Term-3-AI\Testing Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Desktop\Term-3-AI\Testing Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1975317-22F5-40AF-8107-C0B8392826B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B169C7-D1E2-44A3-966C-267510947A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8478DEDF-7F04-4077-B68D-9AFD543336D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8478DEDF-7F04-4077-B68D-9AFD543336D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Blackbox Testing" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
   <si>
     <t>User Acceptance Testing</t>
   </si>
@@ -303,14 +303,38 @@
 3.start the prediction process</t>
   </si>
   <si>
-    <t>Input values in expected range
-[0,42,52812.09301,15609.38091,138961.2505]</t>
-  </si>
-  <si>
     <t>Statement</t>
   </si>
   <si>
     <t>Prediction shown on screen</t>
+  </si>
+  <si>
+    <t>1.Open Code
+2.enter min and max values
+3.run application</t>
+  </si>
+  <si>
+    <t>data should not work as min values are 5</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>the predicted value should be valid with the provided min values</t>
+  </si>
+  <si>
+    <t>the predicted was valid after min values were provided</t>
+  </si>
+  <si>
+    <t>1. open the application
+2. enter the min values
+3. start prediction</t>
+  </si>
+  <si>
+    <t>[0,42,52812.09301,15609.38091,138961.2505]</t>
+  </si>
+  <si>
+    <t>[0,42,62812.09301,15609.38091,138961.2505]</t>
   </si>
 </sst>
 </file>
@@ -849,29 +873,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2178B82F-BB68-4BFB-9B21-BA48D972587D}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="11" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="10" max="11" width="18.26953125" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" customWidth="1"/>
     <col min="17" max="17" width="27" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1">
@@ -914,7 +938,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:17" ht="30">
+    <row r="3" spans="1:17" ht="29">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -967,7 +991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="101.45" customHeight="1">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="101.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -993,13 +1017,13 @@
         <v>59</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>61</v>
@@ -1037,13 +1061,27 @@
       <c r="F5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="N5" s="4" t="s">
         <v>60</v>
       </c>
@@ -1074,17 +1112,29 @@
       <c r="F6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="M6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>60</v>
+      <c r="N6" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>40</v>
@@ -1094,7 +1144,7 @@
       </c>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="51">
+    <row r="7" spans="1:17" ht="61" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1116,7 +1166,9 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1153,7 +1205,9 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1190,7 +1244,9 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1227,7 +1283,9 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1264,7 +1322,9 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1301,7 +1361,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1338,7 +1400,9 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1375,7 +1439,9 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1390,7 +1456,7 @@
       </c>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="63.75">
+    <row r="15" spans="1:17" ht="52">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1412,7 +1478,9 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1438,6 +1506,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="df9135bc-a39e-4069-9ffb-360f93402c62" xsi:nil="true"/>
@@ -1446,15 +1523,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1673,20 +1741,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3C54FB-5819-49BB-95E2-CB49BE3A27CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="df9135bc-a39e-4069-9ffb-360f93402c62"/>
     <ds:schemaRef ds:uri="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Testing Documents/User Acceptance Testing AI.xlsx
+++ b/Testing Documents/User Acceptance Testing AI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Desktop\Term-3-AI\Testing Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Documents\Term-3-AI\Testing Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B169C7-D1E2-44A3-966C-267510947A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A79688C-CAB5-4E43-BA34-B34EB9007E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8478DEDF-7F04-4077-B68D-9AFD543336D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8478DEDF-7F04-4077-B68D-9AFD543336D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Blackbox Testing" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
   <si>
     <t>User Acceptance Testing</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>Harry Bennett</t>
-  </si>
-  <si>
-    <t>Black Box</t>
   </si>
   <si>
     <t>Provide input values within the expected range and verify that the application produces a reasonable prediction.</t>
@@ -335,6 +332,67 @@
   </si>
   <si>
     <t>[0,42,62812.09301,15609.38091,138961.2505]</t>
+  </si>
+  <si>
+    <t>Test with the minimum values for each input feature to ensure the model's behavior at the boundaries.</t>
+  </si>
+  <si>
+    <t>Test with the maximum values for each input feature to ensure the model's behavior at the boundaries.</t>
+  </si>
+  <si>
+    <t>1. open the application
+2. enter the Max values
+3. start prediction</t>
+  </si>
+  <si>
+    <t>Application is running</t>
+  </si>
+  <si>
+    <t>Example of min values
+[0,12,10235,00024.11,200215,10124]</t>
+  </si>
+  <si>
+    <t>Example of max values
+[0,42,62812.09301,15609.38091,138961.2505]</t>
+  </si>
+  <si>
+    <t>User Acceptance</t>
+  </si>
+  <si>
+    <t>FIX THE CODE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FIXED THE CODE:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>def preprocess_data(data):
+# Checking for any missing values
+    if data.isnull().any().any():
+        raise ValueError("The data contains missing values! Please check the data is cleaned before processing.")
+and
+if __name__ == "__main__":
+    try: #add try except to handle missing value error
+        data = load_data('Car_Purchasing_Data.xlsx')
+        ScaledOX, ScaledOY, sc, sc1 = preprocess_data(data)
+        TrainOX, TestOX, TrainOY, TestOY = split_data(ScaledOX, ScaledOY)
+        models = train_models(TrainOX, TrainOY)
+        rmse_values = evaluate_models(models, TestOX, TestOY)
+        plot_model_performance(rmse_values)
+        save_best_model(models, rmse_values)
+        loaded_model = load("car_model.joblib")
+        predict_new_data(loaded_model, sc, sc1)
+    except ValueError as ValError:
+        print(f"Error: {ValError}")</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -513,7 +571,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -553,6 +611,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -871,31 +932,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2178B82F-BB68-4BFB-9B21-BA48D972587D}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="8" width="21.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="11" width="18.26953125" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" customWidth="1"/>
+    <col min="10" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="14.453125" customWidth="1"/>
-    <col min="17" max="17" width="27" customWidth="1"/>
-    <col min="18" max="18" width="18.26953125" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="65.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1">
@@ -938,7 +999,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:17" ht="29">
+    <row r="3" spans="1:17" ht="30">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -946,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>3</v>
@@ -958,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>6</v>
@@ -991,48 +1052,48 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="101.5" customHeight="1">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="101.45" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>40</v>
@@ -1042,48 +1103,48 @@
       </c>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="69.75" customHeight="1">
+    <row r="5" spans="1:17" ht="102.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>40</v>
@@ -1095,46 +1156,46 @@
     </row>
     <row r="6" spans="1:17" ht="89.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>44</v>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>40</v>
@@ -1142,38 +1203,50 @@
       <c r="P6" s="5">
         <v>45173</v>
       </c>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="61" customHeight="1">
+    <row r="7" spans="1:17" ht="60.95" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="J7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="4" t="s">
-        <v>60</v>
+      <c r="L7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>40</v>
@@ -1181,38 +1254,52 @@
       <c r="P7" s="5">
         <v>45173</v>
       </c>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="70.5" customHeight="1">
+    <row r="8" spans="1:17" ht="314.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="J8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="N8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>40</v>
@@ -1220,38 +1307,40 @@
       <c r="P8" s="5">
         <v>45173</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="81.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>40</v>
@@ -1263,34 +1352,34 @@
     </row>
     <row r="10" spans="1:17" ht="84" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>40</v>
@@ -1302,34 +1391,34 @@
     </row>
     <row r="11" spans="1:17" ht="88.5" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>49</v>
+        <v>33</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>40</v>
@@ -1339,36 +1428,36 @@
       </c>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="54.75" customHeight="1">
+    <row r="12" spans="1:17" ht="90.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>40</v>
@@ -1380,34 +1469,34 @@
     </row>
     <row r="13" spans="1:17" ht="56.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>40</v>
@@ -1419,34 +1508,34 @@
     </row>
     <row r="14" spans="1:17" ht="110.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>40</v>
@@ -1456,36 +1545,36 @@
       </c>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="52">
+    <row r="15" spans="1:17" ht="68.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>40</v>
@@ -1494,6 +1583,83 @@
         <v>45173</v>
       </c>
       <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" ht="51">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="5">
+        <v>45173</v>
+      </c>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" ht="63.75">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P17" s="5">
+        <v>45173</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1506,15 +1672,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="df9135bc-a39e-4069-9ffb-360f93402c62" xsi:nil="true"/>
@@ -1523,6 +1680,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1741,20 +1907,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3C54FB-5819-49BB-95E2-CB49BE3A27CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="df9135bc-a39e-4069-9ffb-360f93402c62"/>
     <ds:schemaRef ds:uri="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Testing Documents/User Acceptance Testing AI.xlsx
+++ b/Testing Documents/User Acceptance Testing AI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Documents\Term-3-AI\Testing Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Desktop\Term-3-AI\Testing Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A79688C-CAB5-4E43-BA34-B34EB9007E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4CD6BD-0647-4C42-8A41-944FCB16CA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8478DEDF-7F04-4077-B68D-9AFD543336D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8478DEDF-7F04-4077-B68D-9AFD543336D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Blackbox Testing" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="84">
   <si>
     <t>User Acceptance Testing</t>
   </si>
@@ -320,9 +320,6 @@
     <t>the predicted value should be valid with the provided min values</t>
   </si>
   <si>
-    <t>the predicted was valid after min values were provided</t>
-  </si>
-  <si>
     <t>1. open the application
 2. enter the min values
 3. start prediction</t>
@@ -360,6 +357,12 @@
   </si>
   <si>
     <t>FIX THE CODE</t>
+  </si>
+  <si>
+    <t>the predicted was valid after Max values were provided</t>
+  </si>
+  <si>
+    <t>the predicted was valid after Min values were provided</t>
   </si>
   <si>
     <r>
@@ -378,7 +381,6 @@
 # Checking for any missing values
     if data.isnull().any().any():
         raise ValueError("The data contains missing values! Please check the data is cleaned before processing.")
-and
 if __name__ == "__main__":
     try: #add try except to handle missing value error
         data = load_data('Car_Purchasing_Data.xlsx')
@@ -606,14 +608,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -934,72 +936,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2178B82F-BB68-4BFB-9B21-BA48D972587D}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="11" width="18.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="10" max="11" width="18.26953125" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="65.7109375" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" customWidth="1"/>
+    <col min="17" max="17" width="65.7265625" customWidth="1"/>
+    <col min="18" max="18" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
     </row>
-    <row r="3" spans="1:17" ht="30">
+    <row r="3" spans="1:17" ht="29">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1052,7 +1054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="101.45" customHeight="1">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="101.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1069,7 +1071,7 @@
         <v>41</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>63</v>
@@ -1078,7 +1080,7 @@
         <v>58</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>64</v>
@@ -1117,19 +1119,19 @@
         <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>64</v>
@@ -1141,7 +1143,7 @@
         <v>69</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>59</v>
@@ -1168,19 +1170,19 @@
         <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>64</v>
@@ -1192,7 +1194,7 @@
         <v>69</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>59</v>
@@ -1205,7 +1207,7 @@
       </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="60.95" customHeight="1">
+    <row r="7" spans="1:17" ht="61" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1222,7 +1224,7 @@
         <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>66</v>
@@ -1231,7 +1233,7 @@
         <v>58</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>64</v>
@@ -1255,7 +1257,7 @@
         <v>45173</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="314.25" customHeight="1">
@@ -1275,7 +1277,7 @@
         <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>66</v>
@@ -1284,7 +1286,7 @@
         <v>58</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>64</v>
@@ -1307,8 +1309,8 @@
       <c r="P8" s="5">
         <v>45173</v>
       </c>
-      <c r="Q8" s="14" t="s">
-        <v>82</v>
+      <c r="Q8" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="81.75" customHeight="1">
@@ -1328,7 +1330,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1367,7 +1369,7 @@
         <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1406,7 +1408,7 @@
         <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1445,7 +1447,7 @@
         <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1484,7 +1486,7 @@
         <v>48</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1523,7 +1525,7 @@
         <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1562,7 +1564,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1584,7 +1586,7 @@
       </c>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="51">
+    <row r="16" spans="1:17" ht="52">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1601,7 +1603,7 @@
         <v>51</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1623,7 +1625,7 @@
       </c>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="63.75">
+    <row r="17" spans="1:16" ht="52">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -1640,7 +1642,7 @@
         <v>52</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1672,6 +1674,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="df9135bc-a39e-4069-9ffb-360f93402c62" xsi:nil="true"/>
@@ -1680,15 +1691,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1907,20 +1909,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3C54FB-5819-49BB-95E2-CB49BE3A27CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="df9135bc-a39e-4069-9ffb-360f93402c62"/>
     <ds:schemaRef ds:uri="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Testing Documents/User Acceptance Testing AI.xlsx
+++ b/Testing Documents/User Acceptance Testing AI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Desktop\Term-3-AI\Testing Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Documents\Term-3-AI\Testing Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4CD6BD-0647-4C42-8A41-944FCB16CA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0D9DA4-BA3D-4F6F-A17E-F0631E42ADE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8478DEDF-7F04-4077-B68D-9AFD543336D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8478DEDF-7F04-4077-B68D-9AFD543336D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Blackbox Testing" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="104">
   <si>
     <t>User Acceptance Testing</t>
   </si>
@@ -161,37 +161,13 @@
     <t>Harry Bennett</t>
   </si>
   <si>
-    <t>Provide input values within the expected range and verify that the application produces a reasonable prediction.</t>
-  </si>
-  <si>
     <t>Test with the minimum and maximum values for each input feature to ensure the model's behavior at the boundaries.</t>
   </si>
   <si>
-    <t>Test with missing values in input features and verify that the application handles them gracefully.</t>
-  </si>
-  <si>
-    <t>Test the application's ability to switch between different machine learning models.</t>
-  </si>
-  <si>
-    <t>Confirm that the application successfully trains the selected model with the provided training data.</t>
-  </si>
-  <si>
-    <t>Provide a set of inputs for which you know the expected output. Verify that the application's prediction matches the expected value.</t>
-  </si>
-  <si>
     <t>Test the model's performance with different input combinations and compare the predicted values against actual values.</t>
   </si>
   <si>
-    <t>Check if the application's visualization (the performance comparison bar chart) accurately represents the model's RMSE values.</t>
-  </si>
-  <si>
-    <t>Test if the application correctly saves and loads the trained model using the joblib library.</t>
-  </si>
-  <si>
     <t>Verify that the loaded model produces the same predictions as the original trained model.</t>
-  </si>
-  <si>
-    <t>Use the predict_new_data function to test the application's ability to predict new data points.</t>
   </si>
   <si>
     <t>Verify that the predicted output matches your expectations based on your understanding of the data.</t>
@@ -280,37 +256,15 @@
     <t>Test Steps</t>
   </si>
   <si>
-    <t>Application is installed and running</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>Application should displays a predicted value within a range based on the input values</t>
-  </si>
-  <si>
-    <t>Application displays a predicted value within the range</t>
-  </si>
-  <si>
-    <t>Application does not run</t>
-  </si>
-  <si>
-    <t>1.Open application
-2.enter input values
-3.start the prediction process</t>
-  </si>
-  <si>
     <t>Statement</t>
   </si>
   <si>
     <t>Prediction shown on screen</t>
   </si>
   <si>
-    <t>1.Open Code
-2.enter min and max values
-3.run application</t>
-  </si>
-  <si>
     <t>data should not work as min values are 5</t>
   </si>
   <si>
@@ -320,11 +274,6 @@
     <t>the predicted value should be valid with the provided min values</t>
   </si>
   <si>
-    <t>1. open the application
-2. enter the min values
-3. start prediction</t>
-  </si>
-  <si>
     <t>[0,42,52812.09301,15609.38091,138961.2505]</t>
   </si>
   <si>
@@ -335,14 +284,6 @@
   </si>
   <si>
     <t>Test with the maximum values for each input feature to ensure the model's behavior at the boundaries.</t>
-  </si>
-  <si>
-    <t>1. open the application
-2. enter the Max values
-3. start prediction</t>
-  </si>
-  <si>
-    <t>Application is running</t>
   </si>
   <si>
     <t>Example of min values
@@ -396,12 +337,155 @@
         print(f"Error: {ValError}")</t>
     </r>
   </si>
+  <si>
+    <t>FIXED THE CODE:
+def train_models(TrainOX, TrainOY):
+    NameOModels = [
+        'Linear Regression',
+        'Support Vector Machine',
+        'Random Forest',
+        'Gradient Boosting Regressor',
+        'XGBRegressor'
+    ]
+    models = {}
+    for name in NameOModels:
+        #Display model name
+        print(f"Training model: {name}")
+        model = ModelFactory.get_model(name)
+        model.fit(TrainOX, TrainOY.ravel())
+        models[name] = model
+        #display when model trained successfully
+        print(f"{name} trained successfully.")
+    return models</t>
+  </si>
+  <si>
+    <t>Program does not display "Linear Regression model" name</t>
+  </si>
+  <si>
+    <t>Program does not display "Support Vector Machine" name</t>
+  </si>
+  <si>
+    <t>Program displays support vector machine is active</t>
+  </si>
+  <si>
+    <t>Program displays linear regression model</t>
+  </si>
+  <si>
+    <t>The program shows Linear Regression model is active after selecting the switch</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Provided Training Data</t>
+  </si>
+  <si>
+    <t>Provide input values within the expected range and verify that the program produces a reasonable prediction.</t>
+  </si>
+  <si>
+    <t>1.Open program
+2.enter input values
+3.start the prediction process</t>
+  </si>
+  <si>
+    <t>program is installed and running</t>
+  </si>
+  <si>
+    <t>program should displays a predicted value within a range based on the input values</t>
+  </si>
+  <si>
+    <t>program displays a predicted value within the range</t>
+  </si>
+  <si>
+    <t>1. open the program
+2. enter the min values
+3. start prediction</t>
+  </si>
+  <si>
+    <t>program is running</t>
+  </si>
+  <si>
+    <t>1. open the program
+2. enter the Max values
+3. start prediction</t>
+  </si>
+  <si>
+    <t>Test with missing values in input features and verify that the program handles them gracefully.</t>
+  </si>
+  <si>
+    <t>1.Open Code
+2.enter min and max values
+3.run program</t>
+  </si>
+  <si>
+    <t>program does not run</t>
+  </si>
+  <si>
+    <t>Test the program's ability to switch between different machine learning models.</t>
+  </si>
+  <si>
+    <t>Test the program's ability to switch between linear regression machine learning models.</t>
+  </si>
+  <si>
+    <t>program shows Linear Regression model as active model.</t>
+  </si>
+  <si>
+    <t>Test the program's ability to switch between different Support Vector Machine learning models.</t>
+  </si>
+  <si>
+    <t>program shows Support Vector Machine model as active model.</t>
+  </si>
+  <si>
+    <t>The program shows  Support Vector Machine model is active after selecting the switch</t>
+  </si>
+  <si>
+    <t>Confirm that the program successfully trains the selected model with the provided training data.</t>
+  </si>
+  <si>
+    <t>Provide a set of inputs for which you know the expected output. Verify that the program's prediction matches the expected value.</t>
+  </si>
+  <si>
+    <t>Check if the program's visualization (the performance comparison bar chart) accurately represents the model's RMSE values.</t>
+  </si>
+  <si>
+    <t>Test if the program correctly saves and loads the trained model using the joblib library.</t>
+  </si>
+  <si>
+    <t>Use the predict_new_data function to test the program's ability to predict new data points.</t>
+  </si>
+  <si>
+    <t>Model training is complete.</t>
+  </si>
+  <si>
+    <t>The program should show a confirmation message when successful model training.</t>
+  </si>
+  <si>
+    <t>Program does not show the message about successful training of data.</t>
+  </si>
+  <si>
+    <t>1: Open Program
+2:Must switch to linear regression
+3:verify model switch</t>
+  </si>
+  <si>
+    <t>1: Open Program
+2:Must switch to support vector machine
+3:verify model switch</t>
+  </si>
+  <si>
+    <t>1:Open program
+2:select linear regression
+3:start the model training process with the provided data</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,6 +582,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -573,7 +664,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -616,6 +707,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -934,31 +1037,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2178B82F-BB68-4BFB-9B21-BA48D972587D}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="3" max="3" width="32.7265625" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="8" width="21.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="11" width="18.26953125" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" customWidth="1"/>
+    <col min="10" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="14.453125" customWidth="1"/>
-    <col min="17" max="17" width="65.7265625" customWidth="1"/>
-    <col min="18" max="18" width="18.26953125" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="72" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1">
@@ -1001,7 +1104,7 @@
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
     </row>
-    <row r="3" spans="1:17" ht="29">
+    <row r="3" spans="1:17" ht="30">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -1009,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>3</v>
@@ -1021,7 +1124,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>6</v>
@@ -1054,48 +1157,48 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="101.5" customHeight="1">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="101.45" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="N4" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>40</v>
@@ -1110,43 +1213,43 @@
         <v>17</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="N5" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>40</v>
@@ -1161,43 +1264,43 @@
         <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="N6" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>40</v>
@@ -1207,48 +1310,48 @@
       </c>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="61" customHeight="1">
+    <row r="7" spans="1:17" ht="88.5" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>40</v>
@@ -1257,7 +1360,7 @@
         <v>45173</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="314.25" customHeight="1">
@@ -1265,43 +1368,43 @@
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>40</v>
@@ -1310,39 +1413,51 @@
         <v>45173</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="81.75" customHeight="1">
+    <row r="9" spans="1:17" ht="110.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>40</v>
@@ -1350,38 +1465,52 @@
       <c r="P9" s="5">
         <v>45173</v>
       </c>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" ht="84" customHeight="1">
+    <row r="10" spans="1:17" ht="367.5" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="N10" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>40</v>
@@ -1389,38 +1518,52 @@
       <c r="P10" s="5">
         <v>45173</v>
       </c>
-      <c r="Q10" s="2"/>
+      <c r="Q10" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" ht="88.5" customHeight="1">
+    <row r="11" spans="1:17" ht="126" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>40</v>
@@ -1428,38 +1571,52 @@
       <c r="P11" s="5">
         <v>45173</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" ht="90.75" customHeight="1">
+    <row r="12" spans="1:17" ht="381" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>53</v>
+        <v>86</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="N12" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>40</v>
@@ -1467,38 +1624,52 @@
       <c r="P12" s="5">
         <v>45173</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" ht="56.25" customHeight="1">
+    <row r="13" spans="1:17" ht="124.5" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>53</v>
+        <v>92</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>48</v>
+        <v>32</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>40</v>
@@ -1506,38 +1677,52 @@
       <c r="P13" s="5">
         <v>45173</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" ht="110.25" customHeight="1">
+    <row r="14" spans="1:17" ht="350.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>53</v>
+        <v>92</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>99</v>
+      </c>
       <c r="N14" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>40</v>
@@ -1545,38 +1730,42 @@
       <c r="P14" s="5">
         <v>45173</v>
       </c>
-      <c r="Q14" s="2"/>
+      <c r="Q14" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="68.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>53</v>
+        <v>93</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="2"/>
       <c r="N15" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>40</v>
@@ -1586,36 +1775,36 @@
       </c>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="52">
+    <row r="16" spans="1:17" ht="135" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>51</v>
+        <v>34</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>40</v>
@@ -1625,36 +1814,36 @@
       </c>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="52">
+    <row r="17" spans="1:17" ht="63.75">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>54</v>
+        <v>94</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>40</v>
@@ -1662,6 +1851,163 @@
       <c r="P17" s="5">
         <v>45173</v>
       </c>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" ht="38.25">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="5">
+        <v>45173</v>
+      </c>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" ht="38.25">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="5">
+        <v>45173</v>
+      </c>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" ht="51">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="5">
+        <v>45173</v>
+      </c>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" ht="51">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="5">
+        <v>45173</v>
+      </c>
+      <c r="Q21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1674,15 +2020,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="df9135bc-a39e-4069-9ffb-360f93402c62" xsi:nil="true"/>
@@ -1691,6 +2028,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1909,20 +2255,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3C54FB-5819-49BB-95E2-CB49BE3A27CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="df9135bc-a39e-4069-9ffb-360f93402c62"/>
     <ds:schemaRef ds:uri="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Testing Documents/User Acceptance Testing AI.xlsx
+++ b/Testing Documents/User Acceptance Testing AI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Documents\Term-3-AI\Testing Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0D9DA4-BA3D-4F6F-A17E-F0631E42ADE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CC85E4-DE3C-431F-9465-5083C92FF850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8478DEDF-7F04-4077-B68D-9AFD543336D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="120">
   <si>
     <t>User Acceptance Testing</t>
   </si>
@@ -478,7 +478,72 @@
 3:start the model training process with the provided data</t>
   </si>
   <si>
-    <t>z</t>
+    <t>Test if the program correctly predicts the output for some inputs with known expected output.</t>
+  </si>
+  <si>
+    <t>Input values with known outcome</t>
+  </si>
+  <si>
+    <t>predicted outcome is shown on screen</t>
+  </si>
+  <si>
+    <t>Input data for prediction.</t>
+  </si>
+  <si>
+    <t>Predicted output is displayed on the screen.</t>
+  </si>
+  <si>
+    <t>Verify that the predicted output matches expectations based on understanding of the data.</t>
+  </si>
+  <si>
+    <t>1. Open the program. 
+2. Enter data for prediction. 
+3. Start the prediction process.</t>
+  </si>
+  <si>
+    <t>The program's predicted output should align with the user's understanding of the data.</t>
+  </si>
+  <si>
+    <t>The program's predicted output matched the user's expectations based on the data.</t>
+  </si>
+  <si>
+    <t>The program should give a prediction that matches the known expected result.</t>
+  </si>
+  <si>
+    <t>The program displayed a predicted result that almost matches the known expected result.</t>
+  </si>
+  <si>
+    <t>1. Open the program.
+2. Enter input values for which the expected output is known.
+3. start the prediction process.</t>
+  </si>
+  <si>
+    <t>1. Open the program.
+2. Enter miltiple input values.
+3. start the prediction process.</t>
+  </si>
+  <si>
+    <t>1. Open the program.
+2. Train models.
+3. view data on charts.</t>
+  </si>
+  <si>
+    <t>1. Open the program.
+2. train model.
+3. save model onto joblib.
+4:load model saved on joblib</t>
+  </si>
+  <si>
+    <t>1. Open the program.
+2. train model.
+3. save model onto joblib.
+4:load model saved on joblib
+5:make predictions using models.</t>
+  </si>
+  <si>
+    <t>1. Open the program.
+2. train model.
+3. use predict new data function with new data.</t>
   </si>
 </sst>
 </file>
@@ -625,7 +690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -657,6 +722,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -664,7 +751,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -702,22 +789,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1037,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2178B82F-BB68-4BFB-9B21-BA48D972587D}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1048,61 +1146,62 @@
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="11" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1"/>
     <col min="12" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1"/>
     <col min="17" max="17" width="72" customWidth="1"/>
     <col min="18" max="18" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
     </row>
     <row r="2" spans="1:17" ht="21" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" spans="1:17" ht="30">
       <c r="A3" s="10" t="s">
@@ -1435,25 +1534,25 @@
       <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="14" t="s">
         <v>68</v>
       </c>
       <c r="N9" s="9" t="s">
@@ -1488,25 +1587,25 @@
       <c r="F10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="2" t="s">
         <v>71</v>
       </c>
       <c r="N10" s="4" t="s">
@@ -1518,7 +1617,7 @@
       <c r="P10" s="5">
         <v>45173</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="13" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1541,25 +1640,25 @@
       <c r="F11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="14" t="s">
         <v>69</v>
       </c>
       <c r="N11" s="9" t="s">
@@ -1594,22 +1693,22 @@
       <c r="F12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="14" t="s">
         <v>91</v>
       </c>
       <c r="M12" s="2" t="s">
@@ -1624,7 +1723,7 @@
       <c r="P12" s="5">
         <v>45173</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="13" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1647,25 +1746,25 @@
       <c r="F13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="14" t="s">
         <v>99</v>
       </c>
       <c r="N13" s="9" t="s">
@@ -1700,25 +1799,25 @@
       <c r="F14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="14" t="s">
         <v>99</v>
       </c>
       <c r="N14" s="4" t="s">
@@ -1730,11 +1829,11 @@
       <c r="P14" s="5">
         <v>45173</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="68.25" customHeight="1">
+    <row r="15" spans="1:17" ht="135" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1747,23 +1846,33 @@
       <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>93</v>
+      <c r="E15" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="G15" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="J15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="N15" s="4" t="s">
         <v>50</v>
       </c>
@@ -1794,8 +1903,12 @@
       <c r="F16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I16" s="2"/>
       <c r="J16" s="3" t="s">
         <v>51</v>
@@ -1814,7 +1927,7 @@
       </c>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" ht="63.75">
+    <row r="17" spans="1:17" ht="88.5" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1833,8 +1946,12 @@
       <c r="F17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="3" t="s">
         <v>51</v>
@@ -1853,7 +1970,7 @@
       </c>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="38.25">
+    <row r="18" spans="1:17" ht="134.25" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1989,12 @@
       <c r="F18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="3" t="s">
         <v>51</v>
@@ -1892,7 +2013,7 @@
       </c>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" ht="38.25">
+    <row r="19" spans="1:17" ht="114" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1911,8 +2032,12 @@
       <c r="F19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="3" t="s">
         <v>51</v>
@@ -1931,7 +2056,7 @@
       </c>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="51">
+    <row r="20" spans="1:17" ht="81" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1950,8 +2075,12 @@
       <c r="F20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="3" t="s">
         <v>51</v>
@@ -1970,7 +2099,7 @@
       </c>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" ht="51">
+    <row r="21" spans="1:17" ht="132.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1983,21 +2112,33 @@
       <c r="D21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="3" t="s">
+      <c r="G21" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="K21" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="N21" s="4" t="s">
         <v>50</v>
       </c>
@@ -2008,6 +2149,33 @@
         <v>45173</v>
       </c>
       <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2020,6 +2188,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="df9135bc-a39e-4069-9ffb-360f93402c62" xsi:nil="true"/>
@@ -2028,15 +2205,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2255,20 +2423,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3C54FB-5819-49BB-95E2-CB49BE3A27CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="df9135bc-a39e-4069-9ffb-360f93402c62"/>
     <ds:schemaRef ds:uri="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Testing Documents/User Acceptance Testing AI.xlsx
+++ b/Testing Documents/User Acceptance Testing AI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Documents\Term-3-AI\Testing Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harra\Desktop\Term-3-AI\Testing Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CC85E4-DE3C-431F-9465-5083C92FF850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250D7C7F-C973-47C2-8845-CDB3284DE21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8478DEDF-7F04-4077-B68D-9AFD543336D7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8478DEDF-7F04-4077-B68D-9AFD543336D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Blackbox Testing" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="137">
   <si>
     <t>User Acceptance Testing</t>
   </si>
@@ -545,12 +545,63 @@
 2. train model.
 3. use predict new data function with new data.</t>
   </si>
+  <si>
+    <t>lots of models</t>
+  </si>
+  <si>
+    <t>lots of input values</t>
+  </si>
+  <si>
+    <t>The application's predicted values should closely match the actual values for a variety of input combinations.</t>
+  </si>
+  <si>
+    <t>The programs predicted values were close to the real values for the input combinations tested.</t>
+  </si>
+  <si>
+    <t>The chart displayed the RMSE values of each model as expected.</t>
+  </si>
+  <si>
+    <t>Performance chart is shown.</t>
+  </si>
+  <si>
+    <t>The programs chart should accurately show RMSE values of each model for easy comparison.</t>
+  </si>
+  <si>
+    <t>Trained model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model is saved </t>
+  </si>
+  <si>
+    <t>new input data</t>
+  </si>
+  <si>
+    <t>predictions from models displayed</t>
+  </si>
+  <si>
+    <t>program should save and load trained model without error</t>
+  </si>
+  <si>
+    <t>The application's loaded model should produce predictions identical to the original trained model.</t>
+  </si>
+  <si>
+    <t>The program accurately predictes the output for new input data using predict new data function.</t>
+  </si>
+  <si>
+    <t>The program should accurately predict the output for the new input data.</t>
+  </si>
+  <si>
+    <t>The loaded models predictions match the predictions of the original model.</t>
+  </si>
+  <si>
+    <t>model was successfully saved and loaded without errors.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +700,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -771,9 +829,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -792,8 +847,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -801,21 +857,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1135,32 +1195,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2178B82F-BB68-4BFB-9B21-BA48D972587D}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="20" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="3" max="3" width="32.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="31.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" customWidth="1"/>
+    <col min="11" max="11" width="21.26953125" customWidth="1"/>
     <col min="12" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.26953125" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.26953125" customWidth="1"/>
+    <col min="16" max="16" width="21.1796875" customWidth="1"/>
     <col min="17" max="17" width="72" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21" customHeight="1">
@@ -1203,97 +1263,97 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="1:17" ht="30">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:17" ht="29">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="101.45" customHeight="1">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="101.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="17" t="s">
         <v>79</v>
       </c>
       <c r="N4" s="4" t="s">
@@ -1314,37 +1374,37 @@
       <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="17" t="s">
         <v>65</v>
       </c>
       <c r="N5" s="4" t="s">
@@ -1365,37 +1425,37 @@
       <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="17" t="s">
         <v>64</v>
       </c>
       <c r="N6" s="4" t="s">
@@ -1419,37 +1479,37 @@
       <c r="C7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>54</v>
       </c>
       <c r="O7" s="3" t="s">
@@ -1472,34 +1532,34 @@
       <c r="C8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="18" t="s">
         <v>85</v>
       </c>
       <c r="N8" s="4" t="s">
@@ -1511,7 +1571,7 @@
       <c r="P8" s="5">
         <v>45173</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1522,40 +1582,40 @@
       <c r="B9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="8" t="s">
         <v>54</v>
       </c>
       <c r="O9" s="3" t="s">
@@ -1575,37 +1635,37 @@
       <c r="B10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="18" t="s">
         <v>71</v>
       </c>
       <c r="N10" s="4" t="s">
@@ -1617,7 +1677,7 @@
       <c r="P10" s="5">
         <v>45173</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="12" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1628,40 +1688,40 @@
       <c r="B11" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="8" t="s">
         <v>54</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -1681,37 +1741,37 @@
       <c r="B12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="18" t="s">
         <v>70</v>
       </c>
       <c r="N12" s="4" t="s">
@@ -1723,7 +1783,7 @@
       <c r="P12" s="5">
         <v>45173</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="12" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1734,40 +1794,40 @@
       <c r="B13" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="8" t="s">
         <v>54</v>
       </c>
       <c r="O13" s="3" t="s">
@@ -1787,37 +1847,37 @@
       <c r="B14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="19" t="s">
         <v>99</v>
       </c>
       <c r="N14" s="4" t="s">
@@ -1829,7 +1889,7 @@
       <c r="P14" s="5">
         <v>45173</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="12" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1843,34 +1903,34 @@
       <c r="C15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="L15" s="14" t="s">
+      <c r="L15" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="19" t="s">
         <v>113</v>
       </c>
       <c r="N15" s="4" t="s">
@@ -1891,31 +1951,39 @@
       <c r="B16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="K16" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>123</v>
+      </c>
       <c r="N16" s="4" t="s">
         <v>50</v>
       </c>
@@ -1934,31 +2002,39 @@
       <c r="B17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3" t="s">
+      <c r="I17" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="J17" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="K17" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>124</v>
+      </c>
       <c r="N17" s="4" t="s">
         <v>50</v>
       </c>
@@ -1977,31 +2053,39 @@
       <c r="B18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="3" t="s">
+      <c r="I18" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="K18" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>136</v>
+      </c>
       <c r="N18" s="4" t="s">
         <v>50</v>
       </c>
@@ -2020,31 +2104,39 @@
       <c r="B19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="K19" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="N19" s="4" t="s">
         <v>50</v>
       </c>
@@ -2056,38 +2148,46 @@
       </c>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" ht="81" customHeight="1">
+    <row r="20" spans="1:17" ht="65">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="3" t="s">
+      <c r="I20" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="K20" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>133</v>
+      </c>
       <c r="N20" s="4" t="s">
         <v>50</v>
       </c>
@@ -2106,37 +2206,37 @@
       <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="22" t="s">
         <v>62</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="21" t="s">
         <v>77</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="19" t="s">
         <v>111</v>
       </c>
       <c r="N21" s="4" t="s">
@@ -2151,31 +2251,23 @@
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2188,15 +2280,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="df9135bc-a39e-4069-9ffb-360f93402c62" xsi:nil="true"/>
@@ -2205,6 +2288,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2423,20 +2515,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3C54FB-5819-49BB-95E2-CB49BE3A27CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="df9135bc-a39e-4069-9ffb-360f93402c62"/>
     <ds:schemaRef ds:uri="48ec3ddf-2ef2-4a9b-9631-68f5ec9f82f4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A125CC1-1EA7-46BA-BEC6-11D01A40C3E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
